--- a/medicine/Sexualité et sexologie/Pygmalionisme/Pygmalionisme.xlsx
+++ b/medicine/Sexualité et sexologie/Pygmalionisme/Pygmalionisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pygmalionisme ou agalmatophilie (du grec agalma : « statue », et -philia [φιλία] : « amour ») est une paraphilie relatant une attirance sexuelle envers les statues, poupées, mannequins ou autres objets similaires figuratifs. L'attirance peut inclure le désir d'un contact sexuel avec les objets, un fantasme d'avoir des rencontres sexuelles (ou non). L'agalmatophilie peut aussi se référer au pygmalionisme (du mythe de Pygmalion) décrivant un sentiment d'amour pour un objet de sa propre création[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pygmalionisme ou agalmatophilie (du grec agalma : « statue », et -philia [φιλία] : « amour ») est une paraphilie relatant une attirance sexuelle envers les statues, poupées, mannequins ou autres objets similaires figuratifs. L'attirance peut inclure le désir d'un contact sexuel avec les objets, un fantasme d'avoir des rencontres sexuelles (ou non). L'agalmatophilie peut aussi se référer au pygmalionisme (du mythe de Pygmalion) décrivant un sentiment d'amour pour un objet de sa propre création.
 En opposition à l’« agalmatophilie », il existe l'« agalmatorémaphobie » qui est la peur, lors d'une visite de musée, que les statues se mettent à parler.
 </t>
         </is>
